--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2065.994176685713</v>
+        <v>2333.37264529054</v>
       </c>
       <c r="AB2" t="n">
-        <v>2826.784377771759</v>
+        <v>3192.623394422589</v>
       </c>
       <c r="AC2" t="n">
-        <v>2557.000044174014</v>
+        <v>2887.923898533853</v>
       </c>
       <c r="AD2" t="n">
-        <v>2065994.176685713</v>
+        <v>2333372.64529054</v>
       </c>
       <c r="AE2" t="n">
-        <v>2826784.377771759</v>
+        <v>3192623.394422589</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04993534252671e-07</v>
+        <v>7.280312077426132e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.18229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2557000.044174014</v>
+        <v>2887923.898533853</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1442.275500792989</v>
+        <v>1649.220394829429</v>
       </c>
       <c r="AB3" t="n">
-        <v>1973.384968889374</v>
+        <v>2256.536102674409</v>
       </c>
       <c r="AC3" t="n">
-        <v>1785.047877121771</v>
+        <v>2041.175464103474</v>
       </c>
       <c r="AD3" t="n">
-        <v>1442275.500792989</v>
+        <v>1649220.394829429</v>
       </c>
       <c r="AE3" t="n">
-        <v>1973384.968889374</v>
+        <v>2256536.102674409</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.547993351694096e-07</v>
+        <v>9.440008999678081e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.41927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1785047.877121771</v>
+        <v>2041175.464103474</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1275.554901380207</v>
+        <v>1465.403652026272</v>
       </c>
       <c r="AB4" t="n">
-        <v>1745.270489579063</v>
+        <v>2005.029925748772</v>
       </c>
       <c r="AC4" t="n">
-        <v>1578.704323556153</v>
+        <v>1813.672683712483</v>
       </c>
       <c r="AD4" t="n">
-        <v>1275554.901380207</v>
+        <v>1465403.652026272</v>
       </c>
       <c r="AE4" t="n">
-        <v>1745270.489579063</v>
+        <v>2005029.925748772</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.142501570664078e-07</v>
+        <v>1.029709034292765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.55208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1578704.323556153</v>
+        <v>1813672.683712483</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1191.270915098202</v>
+        <v>1372.486297948783</v>
       </c>
       <c r="AB5" t="n">
-        <v>1629.949421200977</v>
+        <v>1877.8963026756</v>
       </c>
       <c r="AC5" t="n">
-        <v>1474.389336089935</v>
+        <v>1698.672515192254</v>
       </c>
       <c r="AD5" t="n">
-        <v>1191270.915098202</v>
+        <v>1372486.297948783</v>
       </c>
       <c r="AE5" t="n">
-        <v>1629949.421200977</v>
+        <v>1877896.3026756</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.468582443024134e-07</v>
+        <v>1.076718953276653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.69010416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1474389.336089935</v>
+        <v>1698672.515192254</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1142.083391235844</v>
+        <v>1323.213433231854</v>
       </c>
       <c r="AB6" t="n">
-        <v>1562.648881052097</v>
+        <v>1810.478995404522</v>
       </c>
       <c r="AC6" t="n">
-        <v>1413.511865035964</v>
+        <v>1637.689421106343</v>
       </c>
       <c r="AD6" t="n">
-        <v>1142083.391235844</v>
+        <v>1323213.433231854</v>
       </c>
       <c r="AE6" t="n">
-        <v>1562648.881052097</v>
+        <v>1810478.995404522</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.670486490691599e-07</v>
+        <v>1.105826741337544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.62239583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1413511.865035964</v>
+        <v>1637689.421106343</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1103.560745036351</v>
+        <v>1284.605446177789</v>
       </c>
       <c r="AB7" t="n">
-        <v>1509.940497022745</v>
+        <v>1757.653844252972</v>
       </c>
       <c r="AC7" t="n">
-        <v>1365.833895201691</v>
+        <v>1589.905828240132</v>
       </c>
       <c r="AD7" t="n">
-        <v>1103560.745036351</v>
+        <v>1284605.446177789</v>
       </c>
       <c r="AE7" t="n">
-        <v>1509940.497022745</v>
+        <v>1757653.844252972</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.803066258408501e-07</v>
+        <v>1.124940294653828e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.9453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1365833.895201691</v>
+        <v>1589905.828240131</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1077.476568321575</v>
+        <v>1249.887991176081</v>
       </c>
       <c r="AB8" t="n">
-        <v>1474.250975688928</v>
+        <v>1710.151890693617</v>
       </c>
       <c r="AC8" t="n">
-        <v>1333.550531693416</v>
+        <v>1546.937394459071</v>
       </c>
       <c r="AD8" t="n">
-        <v>1077476.568321575</v>
+        <v>1249887.991176081</v>
       </c>
       <c r="AE8" t="n">
-        <v>1474250.975688928</v>
+        <v>1710151.890693617</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.9004003484401e-07</v>
+        <v>1.138972604042719e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.46354166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1333550.531693416</v>
+        <v>1546937.394459071</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1056.711507695803</v>
+        <v>1220.660244463969</v>
       </c>
       <c r="AB9" t="n">
-        <v>1445.839303650927</v>
+        <v>1670.161198204925</v>
       </c>
       <c r="AC9" t="n">
-        <v>1307.850429758689</v>
+        <v>1510.76335753421</v>
       </c>
       <c r="AD9" t="n">
-        <v>1056711.507695803</v>
+        <v>1220660.244463969</v>
       </c>
       <c r="AE9" t="n">
-        <v>1445839.303650927</v>
+        <v>1670161.198204925</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.978827816666999e-07</v>
+        <v>1.150279213046718e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>39</v>
+        <v>38.0859375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1307850.429758689</v>
+        <v>1510763.35753421</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1029.309079339923</v>
+        <v>1201.805753540449</v>
       </c>
       <c r="AB10" t="n">
-        <v>1408.346092264592</v>
+        <v>1644.363651921931</v>
       </c>
       <c r="AC10" t="n">
-        <v>1273.935517845014</v>
+        <v>1487.427892861381</v>
       </c>
       <c r="AD10" t="n">
-        <v>1029309.079339923</v>
+        <v>1201805.753540449</v>
       </c>
       <c r="AE10" t="n">
-        <v>1408346.092264592</v>
+        <v>1644363.651921931</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.046518191029501e-07</v>
+        <v>1.160037893437074e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.7734375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1273935.517845014</v>
+        <v>1487427.892861381</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1010.778014181195</v>
+        <v>1174.812002295381</v>
       </c>
       <c r="AB11" t="n">
-        <v>1382.991071381525</v>
+        <v>1607.429610588172</v>
       </c>
       <c r="AC11" t="n">
-        <v>1251.000344569031</v>
+        <v>1454.018784595264</v>
       </c>
       <c r="AD11" t="n">
-        <v>1010778.014181195</v>
+        <v>1174812.002295381</v>
       </c>
       <c r="AE11" t="n">
-        <v>1382991.071381525</v>
+        <v>1607429.610588172</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.093434622915237e-07</v>
+        <v>1.166801668466253e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>37.55208333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1251000.344569031</v>
+        <v>1454018.784595264</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>989.6582540103595</v>
+        <v>1153.521649923954</v>
       </c>
       <c r="AB12" t="n">
-        <v>1354.094083777728</v>
+        <v>1578.299211209528</v>
       </c>
       <c r="AC12" t="n">
-        <v>1224.861244904964</v>
+        <v>1427.668549648545</v>
       </c>
       <c r="AD12" t="n">
-        <v>989658.2540103595</v>
+        <v>1153521.649923954</v>
       </c>
       <c r="AE12" t="n">
-        <v>1354094.083777728</v>
+        <v>1578299.211209528</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.1303142061886e-07</v>
+        <v>1.172118466747895e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>37.3828125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1224861.244904964</v>
+        <v>1427668.549648545</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>979.8051674009147</v>
+        <v>1143.668563314509</v>
       </c>
       <c r="AB13" t="n">
-        <v>1340.612655991183</v>
+        <v>1564.817783422983</v>
       </c>
       <c r="AC13" t="n">
-        <v>1212.666465665064</v>
+        <v>1415.473770408645</v>
       </c>
       <c r="AD13" t="n">
-        <v>979805.1674009147</v>
+        <v>1143668.563314509</v>
       </c>
       <c r="AE13" t="n">
-        <v>1340612.655991183</v>
+        <v>1564817.783422983</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.158324016269636e-07</v>
+        <v>1.17615654139218e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>37.25260416666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1212666.465665064</v>
+        <v>1415473.770408645</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>983.2470358705674</v>
+        <v>1147.110431784162</v>
       </c>
       <c r="AB14" t="n">
-        <v>1345.321972275882</v>
+        <v>1569.527099707682</v>
       </c>
       <c r="AC14" t="n">
-        <v>1216.926331413118</v>
+        <v>1419.7336361567</v>
       </c>
       <c r="AD14" t="n">
-        <v>983247.0358705674</v>
+        <v>1147110.431784162</v>
       </c>
       <c r="AE14" t="n">
-        <v>1345321.972275882</v>
+        <v>1569527.099707682</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.15225522408541e-07</v>
+        <v>1.175281625219252e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>38</v>
+        <v>37.27864583333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1216926.331413118</v>
+        <v>1419733.6361567</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>986.4239819395526</v>
+        <v>1150.287377853147</v>
       </c>
       <c r="AB15" t="n">
-        <v>1349.668810044436</v>
+        <v>1573.873937476236</v>
       </c>
       <c r="AC15" t="n">
-        <v>1220.858313085867</v>
+        <v>1423.665617829448</v>
       </c>
       <c r="AD15" t="n">
-        <v>986423.9819395526</v>
+        <v>1150287.377853147</v>
       </c>
       <c r="AE15" t="n">
-        <v>1349668.810044436</v>
+        <v>1573873.937476236</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.151788393917394e-07</v>
+        <v>1.17521432397518e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>38</v>
+        <v>37.27864583333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1220858.313085867</v>
+        <v>1423665.617829448</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1638.750894336294</v>
+        <v>1874.268072167236</v>
       </c>
       <c r="AB2" t="n">
-        <v>2242.211270217939</v>
+        <v>2564.45626321081</v>
       </c>
       <c r="AC2" t="n">
-        <v>2028.217773551621</v>
+        <v>2319.70815668694</v>
       </c>
       <c r="AD2" t="n">
-        <v>1638750.894336294</v>
+        <v>1874268.072167236</v>
       </c>
       <c r="AE2" t="n">
-        <v>2242211.270217939</v>
+        <v>2564456.26321081</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.830646631588599e-07</v>
+        <v>8.535847325824909e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.91927083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2028217.773551621</v>
+        <v>2319708.15668694</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1214.975626610102</v>
+        <v>1408.405686666028</v>
       </c>
       <c r="AB3" t="n">
-        <v>1662.383253269624</v>
+        <v>1927.042794970125</v>
       </c>
       <c r="AC3" t="n">
-        <v>1503.72772874712</v>
+        <v>1743.128535239725</v>
       </c>
       <c r="AD3" t="n">
-        <v>1214975.626610102</v>
+        <v>1408405.686666029</v>
       </c>
       <c r="AE3" t="n">
-        <v>1662383.253269624</v>
+        <v>1927042.794970125</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.213273152998146e-07</v>
+        <v>1.055996054020655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1503727.72874712</v>
+        <v>1743128.535239725</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1093.958630078095</v>
+        <v>1270.639183878588</v>
       </c>
       <c r="AB4" t="n">
-        <v>1496.802459721445</v>
+        <v>1738.544588027198</v>
       </c>
       <c r="AC4" t="n">
-        <v>1353.949733741076</v>
+        <v>1572.620332608535</v>
       </c>
       <c r="AD4" t="n">
-        <v>1093958.630078095</v>
+        <v>1270639.183878588</v>
       </c>
       <c r="AE4" t="n">
-        <v>1496802.459721445</v>
+        <v>1738544.588027197</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.734595308031888e-07</v>
+        <v>1.132315656358237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.65104166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1353949.733741076</v>
+        <v>1572620.332608535</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1036.528689796625</v>
+        <v>1204.706568696093</v>
       </c>
       <c r="AB5" t="n">
-        <v>1418.224281798187</v>
+        <v>1648.332675192815</v>
       </c>
       <c r="AC5" t="n">
-        <v>1282.870946833648</v>
+        <v>1491.018118121852</v>
       </c>
       <c r="AD5" t="n">
-        <v>1036528.689796625</v>
+        <v>1204706.568696094</v>
       </c>
       <c r="AE5" t="n">
-        <v>1418224.281798187</v>
+        <v>1648332.675192815</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.999723481365399e-07</v>
+        <v>1.171129423549837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1282870.946833648</v>
+        <v>1491018.118121852</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>989.8443919155975</v>
+        <v>1157.936929960494</v>
       </c>
       <c r="AB6" t="n">
-        <v>1354.3487658715</v>
+        <v>1584.340392143931</v>
       </c>
       <c r="AC6" t="n">
-        <v>1225.091620497155</v>
+        <v>1433.13316875342</v>
       </c>
       <c r="AD6" t="n">
-        <v>989844.3919155975</v>
+        <v>1157936.929960494</v>
       </c>
       <c r="AE6" t="n">
-        <v>1354348.7658715</v>
+        <v>1584340.392143931</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.187582970302987e-07</v>
+        <v>1.198631346022574e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.3984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1225091.620497155</v>
+        <v>1433133.16875342</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>952.8197998491006</v>
+        <v>1120.997589240018</v>
       </c>
       <c r="AB7" t="n">
-        <v>1303.690085596397</v>
+        <v>1533.798356521477</v>
       </c>
       <c r="AC7" t="n">
-        <v>1179.267733567603</v>
+        <v>1387.41479407458</v>
       </c>
       <c r="AD7" t="n">
-        <v>952819.7998491006</v>
+        <v>1120997.589240018</v>
       </c>
       <c r="AE7" t="n">
-        <v>1303690.085596397</v>
+        <v>1533798.356521477</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.306142107922982e-07</v>
+        <v>1.215987957763081e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.8515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1179267.733567603</v>
+        <v>1387414.79407458</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>930.9692680840318</v>
+        <v>1090.900315629089</v>
       </c>
       <c r="AB8" t="n">
-        <v>1273.793224058002</v>
+        <v>1492.617938969004</v>
       </c>
       <c r="AC8" t="n">
-        <v>1152.224186533924</v>
+        <v>1350.164577776236</v>
       </c>
       <c r="AD8" t="n">
-        <v>930969.2680840318</v>
+        <v>1090900.315629089</v>
       </c>
       <c r="AE8" t="n">
-        <v>1273793.224058002</v>
+        <v>1492617.938969004</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.375925388518048e-07</v>
+        <v>1.226203967524804e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.5390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1152224.186533924</v>
+        <v>1350164.577776236</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>906.470388209488</v>
+        <v>1066.230843553953</v>
       </c>
       <c r="AB9" t="n">
-        <v>1240.272775799352</v>
+        <v>1458.864078935506</v>
       </c>
       <c r="AC9" t="n">
-        <v>1121.902882810834</v>
+        <v>1319.632138770495</v>
       </c>
       <c r="AD9" t="n">
-        <v>906470.388209488</v>
+        <v>1066230.843553953</v>
       </c>
       <c r="AE9" t="n">
-        <v>1240272.775799352</v>
+        <v>1458864.078935506</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.440154982422159e-07</v>
+        <v>1.235606938447359e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.25260416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1121902.882810834</v>
+        <v>1319632.138770495</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>899.6813941725636</v>
+        <v>1059.441849517029</v>
       </c>
       <c r="AB10" t="n">
-        <v>1230.983774648753</v>
+        <v>1449.575077784907</v>
       </c>
       <c r="AC10" t="n">
-        <v>1113.500410892854</v>
+        <v>1311.229666852515</v>
       </c>
       <c r="AD10" t="n">
-        <v>899681.3941725636</v>
+        <v>1059441.849517029</v>
       </c>
       <c r="AE10" t="n">
-        <v>1230983.774648753</v>
+        <v>1449575.077784907</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.465750234128309e-07</v>
+        <v>1.239353987010483e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.13541666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1113500.410892854</v>
+        <v>1311229.666852515</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>902.6375976066691</v>
+        <v>1062.398052951135</v>
       </c>
       <c r="AB11" t="n">
-        <v>1235.028582605787</v>
+        <v>1453.619885741942</v>
       </c>
       <c r="AC11" t="n">
-        <v>1117.159188055392</v>
+        <v>1314.888444015053</v>
       </c>
       <c r="AD11" t="n">
-        <v>902637.5976066692</v>
+        <v>1062398.052951135</v>
       </c>
       <c r="AE11" t="n">
-        <v>1235028.582605787</v>
+        <v>1453619.885741942</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.464059981657149e-07</v>
+        <v>1.239106540407258e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>37.1484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1117159.188055392</v>
+        <v>1314888.444015053</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>883.1623583541547</v>
+        <v>1053.786777452267</v>
       </c>
       <c r="AB2" t="n">
-        <v>1208.381701073579</v>
+        <v>1441.837558701729</v>
       </c>
       <c r="AC2" t="n">
-        <v>1093.055447497485</v>
+        <v>1304.230605730959</v>
       </c>
       <c r="AD2" t="n">
-        <v>883162.3583541546</v>
+        <v>1053786.777452267</v>
       </c>
       <c r="AE2" t="n">
-        <v>1208381.701073579</v>
+        <v>1441837.558701729</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.288493617811171e-07</v>
+        <v>1.282332269968272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.33072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1093055.447497485</v>
+        <v>1304230.605730959</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>737.6398541015149</v>
+        <v>885.1330887060514</v>
       </c>
       <c r="AB3" t="n">
-        <v>1009.271390755331</v>
+        <v>1211.078141283532</v>
       </c>
       <c r="AC3" t="n">
-        <v>912.9479457429348</v>
+        <v>1095.494543238277</v>
       </c>
       <c r="AD3" t="n">
-        <v>737639.8541015149</v>
+        <v>885133.0887060513</v>
       </c>
       <c r="AE3" t="n">
-        <v>1009271.390755331</v>
+        <v>1211078.141283531</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.194618188277947e-07</v>
+        <v>1.422520925579197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.15104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>912947.9457429348</v>
+        <v>1095494.543238277</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>701.8232921541145</v>
+        <v>849.2311859040793</v>
       </c>
       <c r="AB4" t="n">
-        <v>960.2655905837034</v>
+        <v>1161.955573989707</v>
       </c>
       <c r="AC4" t="n">
-        <v>868.619190359615</v>
+        <v>1051.060164823019</v>
       </c>
       <c r="AD4" t="n">
-        <v>701823.2921541145</v>
+        <v>849231.1859040793</v>
       </c>
       <c r="AE4" t="n">
-        <v>960265.5905837035</v>
+        <v>1161955.573989707</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.367328818569116e-07</v>
+        <v>1.449241391902897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.44791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>868619.190359615</v>
+        <v>1051060.164823019</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>705.3072933306752</v>
+        <v>852.7151870806401</v>
       </c>
       <c r="AB5" t="n">
-        <v>965.0325546967578</v>
+        <v>1166.722538102761</v>
       </c>
       <c r="AC5" t="n">
-        <v>872.931202108196</v>
+        <v>1055.372176571599</v>
       </c>
       <c r="AD5" t="n">
-        <v>705307.2933306752</v>
+        <v>852715.1870806401</v>
       </c>
       <c r="AE5" t="n">
-        <v>965032.5546967578</v>
+        <v>1166722.538102761</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.366251061125802e-07</v>
+        <v>1.449074649523342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.4609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>872931.202108196</v>
+        <v>1055372.176571599</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1114.43345106128</v>
+        <v>1306.777941634006</v>
       </c>
       <c r="AB2" t="n">
-        <v>1524.817013075989</v>
+        <v>1787.991230717631</v>
       </c>
       <c r="AC2" t="n">
-        <v>1379.290617442135</v>
+        <v>1617.347857119393</v>
       </c>
       <c r="AD2" t="n">
-        <v>1114433.45106128</v>
+        <v>1306777.941634006</v>
       </c>
       <c r="AE2" t="n">
-        <v>1524817.013075989</v>
+        <v>1787991.230717631</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.313798191842362e-07</v>
+        <v>1.105329909371457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.88541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1379290.617442135</v>
+        <v>1617347.857119393</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>899.6024569039627</v>
+        <v>1067.882550941456</v>
       </c>
       <c r="AB3" t="n">
-        <v>1230.875769195387</v>
+        <v>1461.124017851274</v>
       </c>
       <c r="AC3" t="n">
-        <v>1113.40271332837</v>
+        <v>1321.676392287987</v>
       </c>
       <c r="AD3" t="n">
-        <v>899602.4569039627</v>
+        <v>1067882.550941456</v>
       </c>
       <c r="AE3" t="n">
-        <v>1230875.769195387</v>
+        <v>1461124.017851274</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.400789344834511e-07</v>
+        <v>1.269606226697862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.94791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1113402.71332837</v>
+        <v>1321676.392287987</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>827.7356526673533</v>
+        <v>980.0582460444798</v>
       </c>
       <c r="AB4" t="n">
-        <v>1132.54443709922</v>
+        <v>1340.958929356351</v>
       </c>
       <c r="AC4" t="n">
-        <v>1024.455985558571</v>
+        <v>1212.979691186258</v>
       </c>
       <c r="AD4" t="n">
-        <v>827735.6526673533</v>
+        <v>980058.2460444798</v>
       </c>
       <c r="AE4" t="n">
-        <v>1132544.43709922</v>
+        <v>1340958.929356351</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.812954119232054e-07</v>
+        <v>1.331896440452883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.0859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1024455.985558571</v>
+        <v>1212979.691186258</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>779.6175045909623</v>
+        <v>931.8547571135172</v>
       </c>
       <c r="AB5" t="n">
-        <v>1066.70706407823</v>
+        <v>1275.004789213163</v>
       </c>
       <c r="AC5" t="n">
-        <v>964.9020390153706</v>
+        <v>1153.320121611119</v>
       </c>
       <c r="AD5" t="n">
-        <v>779617.5045909623</v>
+        <v>931854.7571135171</v>
       </c>
       <c r="AE5" t="n">
-        <v>1066707.06407823</v>
+        <v>1275004.789213163</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.003441779194398e-07</v>
+        <v>1.360684725609206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.27864583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>964902.0390153707</v>
+        <v>1153320.121611119</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>775.3391200943715</v>
+        <v>927.5763726169264</v>
       </c>
       <c r="AB6" t="n">
-        <v>1060.853189660992</v>
+        <v>1269.150914795925</v>
       </c>
       <c r="AC6" t="n">
-        <v>959.6068501565492</v>
+        <v>1148.024932752297</v>
       </c>
       <c r="AD6" t="n">
-        <v>775339.1200943715</v>
+        <v>927576.3726169264</v>
       </c>
       <c r="AE6" t="n">
-        <v>1060853.189660992</v>
+        <v>1269150.914795925</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.031538064628626e-07</v>
+        <v>1.364930900280436e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.16145833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>959606.8501565491</v>
+        <v>1148024.932752297</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>723.9735454693848</v>
+        <v>875.0645268661873</v>
       </c>
       <c r="AB2" t="n">
-        <v>990.5725443698652</v>
+        <v>1197.301890780631</v>
       </c>
       <c r="AC2" t="n">
-        <v>896.0336910125025</v>
+        <v>1083.033078748284</v>
       </c>
       <c r="AD2" t="n">
-        <v>723973.5454693849</v>
+        <v>875064.5268661873</v>
       </c>
       <c r="AE2" t="n">
-        <v>990572.5443698652</v>
+        <v>1197301.890780631</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.102207601339236e-07</v>
+        <v>1.438592979952117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.02604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>896033.6910125024</v>
+        <v>1083033.078748284</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>654.9363796689671</v>
+        <v>798.4685494286283</v>
       </c>
       <c r="AB3" t="n">
-        <v>896.1128484169337</v>
+        <v>1092.499895274528</v>
       </c>
       <c r="AC3" t="n">
-        <v>810.5890958663027</v>
+        <v>988.2332386027599</v>
       </c>
       <c r="AD3" t="n">
-        <v>654936.3796689671</v>
+        <v>798468.5494286283</v>
       </c>
       <c r="AE3" t="n">
-        <v>896112.8484169337</v>
+        <v>1092499.895274528</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.585763254646158e-07</v>
+        <v>1.515018370223499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.0078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>810589.0958663027</v>
+        <v>988233.2386027599</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1740.098191369189</v>
+        <v>1977.204713436926</v>
       </c>
       <c r="AB2" t="n">
-        <v>2380.879113145534</v>
+        <v>2705.298717040107</v>
       </c>
       <c r="AC2" t="n">
-        <v>2153.651352171746</v>
+        <v>2447.108804396395</v>
       </c>
       <c r="AD2" t="n">
-        <v>1740098.191369189</v>
+        <v>1977204.713436926</v>
       </c>
       <c r="AE2" t="n">
-        <v>2380879.113145534</v>
+        <v>2705298.717040107</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.625839067285142e-07</v>
+        <v>8.201833639800689e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.37760416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2153651.352171746</v>
+        <v>2447108.804396395</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1273.18121307394</v>
+        <v>1467.831481024904</v>
       </c>
       <c r="AB3" t="n">
-        <v>1742.022704518692</v>
+        <v>2008.351788492957</v>
       </c>
       <c r="AC3" t="n">
-        <v>1575.766502543649</v>
+        <v>1816.677512538627</v>
       </c>
       <c r="AD3" t="n">
-        <v>1273181.21307394</v>
+        <v>1467831.481024904</v>
       </c>
       <c r="AE3" t="n">
-        <v>1742022.704518692</v>
+        <v>2008351.788492957</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.035768620005008e-07</v>
+        <v>1.025735060303785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.28385416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1575766.502543649</v>
+        <v>1816677.512538627</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1141.151033134349</v>
+        <v>1318.938276635004</v>
       </c>
       <c r="AB4" t="n">
-        <v>1561.373187564895</v>
+        <v>1804.629537542113</v>
       </c>
       <c r="AC4" t="n">
-        <v>1412.357921944733</v>
+        <v>1632.398227292557</v>
       </c>
       <c r="AD4" t="n">
-        <v>1141151.033134349</v>
+        <v>1318938.276635004</v>
       </c>
       <c r="AE4" t="n">
-        <v>1561373.187564895</v>
+        <v>1804629.537542113</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.587344930089749e-07</v>
+        <v>1.106148614279713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.06770833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1412357.921944733</v>
+        <v>1632398.227292557</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1071.148648290066</v>
+        <v>1248.935802282169</v>
       </c>
       <c r="AB5" t="n">
-        <v>1465.592836333688</v>
+        <v>1708.849063841357</v>
       </c>
       <c r="AC5" t="n">
-        <v>1325.718713006465</v>
+        <v>1545.758907573062</v>
       </c>
       <c r="AD5" t="n">
-        <v>1071148.648290066</v>
+        <v>1248935.802282169</v>
       </c>
       <c r="AE5" t="n">
-        <v>1465592.836333688</v>
+        <v>1708849.063841357</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.867081462189125e-07</v>
+        <v>1.146931019745162e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1325718.713006465</v>
+        <v>1545758.907573062</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1028.047791705924</v>
+        <v>1197.446103900159</v>
       </c>
       <c r="AB6" t="n">
-        <v>1406.620342879672</v>
+        <v>1638.398586949917</v>
       </c>
       <c r="AC6" t="n">
-        <v>1272.374471559286</v>
+        <v>1482.032125318276</v>
       </c>
       <c r="AD6" t="n">
-        <v>1028047.791705924</v>
+        <v>1197446.103900159</v>
       </c>
       <c r="AE6" t="n">
-        <v>1406620.342879672</v>
+        <v>1638398.586949917</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.036502732271553e-07</v>
+        <v>1.171630714415425e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.77604166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1272374.471559286</v>
+        <v>1482032.125318276</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>998.5689139652912</v>
+        <v>1159.493133015637</v>
       </c>
       <c r="AB7" t="n">
-        <v>1366.286041838638</v>
+        <v>1586.46965781881</v>
       </c>
       <c r="AC7" t="n">
-        <v>1235.889619600061</v>
+        <v>1435.059220300731</v>
       </c>
       <c r="AD7" t="n">
-        <v>998568.9139652912</v>
+        <v>1159493.133015637</v>
       </c>
       <c r="AE7" t="n">
-        <v>1366286.041838638</v>
+        <v>1586469.65781881</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.168593891996835e-07</v>
+        <v>1.190888103480376e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.15104166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1235889.619600061</v>
+        <v>1435059.220300731</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>965.0539027761893</v>
+        <v>1134.366874115853</v>
       </c>
       <c r="AB8" t="n">
-        <v>1320.429324951768</v>
+        <v>1552.090801899816</v>
       </c>
       <c r="AC8" t="n">
-        <v>1194.409403412568</v>
+        <v>1403.961434139619</v>
       </c>
       <c r="AD8" t="n">
-        <v>965053.9027761893</v>
+        <v>1134366.874115853</v>
       </c>
       <c r="AE8" t="n">
-        <v>1320429.324951768</v>
+        <v>1552090.801899816</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.256893960726236e-07</v>
+        <v>1.203761249431403e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1194409.403412568</v>
+        <v>1403961.434139619</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>940.853879629112</v>
+        <v>1101.692757824886</v>
       </c>
       <c r="AB9" t="n">
-        <v>1287.317785652265</v>
+        <v>1507.384634510239</v>
       </c>
       <c r="AC9" t="n">
-        <v>1164.457982951472</v>
+        <v>1363.521960620203</v>
       </c>
       <c r="AD9" t="n">
-        <v>940853.8796291121</v>
+        <v>1101692.757824886</v>
       </c>
       <c r="AE9" t="n">
-        <v>1287317.785652265</v>
+        <v>1507384.634510239</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.323896722905728e-07</v>
+        <v>1.21352949026145e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.43489583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1164457.982951472</v>
+        <v>1363521.960620203</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>922.715285100059</v>
+        <v>1083.554163295833</v>
       </c>
       <c r="AB10" t="n">
-        <v>1262.499760399301</v>
+        <v>1482.566609257275</v>
       </c>
       <c r="AC10" t="n">
-        <v>1142.008555196334</v>
+        <v>1341.072532865065</v>
       </c>
       <c r="AD10" t="n">
-        <v>922715.285100059</v>
+        <v>1083554.163295833</v>
       </c>
       <c r="AE10" t="n">
-        <v>1262499.760399301</v>
+        <v>1482566.609257275</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.37055936085216e-07</v>
+        <v>1.220332372268091e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.2265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1142008.555196334</v>
+        <v>1341072.532865065</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>920.6665172540804</v>
+        <v>1081.505395449854</v>
       </c>
       <c r="AB11" t="n">
-        <v>1259.696545847175</v>
+        <v>1479.763394705148</v>
       </c>
       <c r="AC11" t="n">
-        <v>1139.472875506726</v>
+        <v>1338.536853175457</v>
       </c>
       <c r="AD11" t="n">
-        <v>920666.5172540804</v>
+        <v>1081505.395449854</v>
       </c>
       <c r="AE11" t="n">
-        <v>1259696.545847175</v>
+        <v>1479763.394705148</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.377977523807745e-07</v>
+        <v>1.221413856074275e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>37.1875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1139472.875506726</v>
+        <v>1338536.853175457</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>924.1827765330328</v>
+        <v>1085.021654728807</v>
       </c>
       <c r="AB12" t="n">
-        <v>1264.507646919049</v>
+        <v>1484.574495777023</v>
       </c>
       <c r="AC12" t="n">
-        <v>1143.824811844723</v>
+        <v>1342.888789513454</v>
       </c>
       <c r="AD12" t="n">
-        <v>924182.7765330328</v>
+        <v>1085021.654728807</v>
       </c>
       <c r="AE12" t="n">
-        <v>1264507.646919049</v>
+        <v>1484574.495777023</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.375345272436409e-07</v>
+        <v>1.221030103755951e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>37.20052083333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1143824.811844723</v>
+        <v>1342888.789513454</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>631.720036168876</v>
+        <v>787.6066152070809</v>
       </c>
       <c r="AB2" t="n">
-        <v>864.3472230073208</v>
+        <v>1077.638117677889</v>
       </c>
       <c r="AC2" t="n">
-        <v>781.8551371624479</v>
+        <v>974.7898482013081</v>
       </c>
       <c r="AD2" t="n">
-        <v>631720.0361688761</v>
+        <v>787606.615207081</v>
       </c>
       <c r="AE2" t="n">
-        <v>864347.2230073209</v>
+        <v>1077638.117677889</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.569910536420103e-07</v>
+        <v>1.533324462910841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.95833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>781855.1371624479</v>
+        <v>974789.8482013082</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>623.381217899168</v>
+        <v>772.0031166654722</v>
       </c>
       <c r="AB3" t="n">
-        <v>852.9376839680081</v>
+        <v>1056.288722595488</v>
       </c>
       <c r="AC3" t="n">
-        <v>771.5345085156586</v>
+        <v>955.4780094215068</v>
       </c>
       <c r="AD3" t="n">
-        <v>623381.2178991679</v>
+        <v>772003.1166654723</v>
       </c>
       <c r="AE3" t="n">
-        <v>852937.683968008</v>
+        <v>1056288.722595488</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.684461938837076e-07</v>
+        <v>1.551678288363884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.50260416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>771534.5085156586</v>
+        <v>955478.0094215069</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1364.95181612467</v>
+        <v>1578.844667786823</v>
       </c>
       <c r="AB2" t="n">
-        <v>1867.587292245969</v>
+        <v>2160.244928176761</v>
       </c>
       <c r="AC2" t="n">
-        <v>1689.347382249241</v>
+        <v>1954.07418415437</v>
       </c>
       <c r="AD2" t="n">
-        <v>1364951.81612467</v>
+        <v>1578844.667786823</v>
       </c>
       <c r="AE2" t="n">
-        <v>1867587.292245969</v>
+        <v>2160244.928176761</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.515388491196358e-07</v>
+        <v>9.674330277808569e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.71354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1689347.382249241</v>
+        <v>1954074.184154369</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1057.666456438662</v>
+        <v>1238.626456812923</v>
       </c>
       <c r="AB3" t="n">
-        <v>1447.145906650271</v>
+        <v>1694.743362554112</v>
       </c>
       <c r="AC3" t="n">
-        <v>1309.032332401605</v>
+        <v>1532.999434619195</v>
       </c>
       <c r="AD3" t="n">
-        <v>1057666.456438662</v>
+        <v>1238626.456812923</v>
       </c>
       <c r="AE3" t="n">
-        <v>1447145.906650271</v>
+        <v>1694743.362554112</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.76179333066689e-07</v>
+        <v>1.152504602456564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.73177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1309032.332401605</v>
+        <v>1532999.434619195</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>964.5621390910676</v>
+        <v>1129.055803329933</v>
       </c>
       <c r="AB4" t="n">
-        <v>1319.756472182702</v>
+        <v>1544.823960542614</v>
       </c>
       <c r="AC4" t="n">
-        <v>1193.800766767426</v>
+        <v>1397.388129922473</v>
       </c>
       <c r="AD4" t="n">
-        <v>964562.1390910676</v>
+        <v>1129055.803329933</v>
       </c>
       <c r="AE4" t="n">
-        <v>1319756.472182702</v>
+        <v>1544823.960542615</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.234233009340451e-07</v>
+        <v>1.222654486749811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.3359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1193800.766767426</v>
+        <v>1397388.129922473</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>912.9010980680054</v>
+        <v>1069.24689033947</v>
       </c>
       <c r="AB5" t="n">
-        <v>1249.071556730671</v>
+        <v>1462.990767206044</v>
       </c>
       <c r="AC5" t="n">
-        <v>1129.861920439235</v>
+        <v>1323.364981704336</v>
       </c>
       <c r="AD5" t="n">
-        <v>912901.0980680054</v>
+        <v>1069246.89033947</v>
       </c>
       <c r="AE5" t="n">
-        <v>1249071.556730671</v>
+        <v>1462990.767206043</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.464357655350478e-07</v>
+        <v>1.256824388261793e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.26822916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1129861.920439235</v>
+        <v>1323364.981704336</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>868.8098886496175</v>
+        <v>1025.240932267103</v>
       </c>
       <c r="AB6" t="n">
-        <v>1188.744018837556</v>
+        <v>1402.779873965578</v>
       </c>
       <c r="AC6" t="n">
-        <v>1075.291958092409</v>
+        <v>1268.900531608221</v>
       </c>
       <c r="AD6" t="n">
-        <v>868809.8886496176</v>
+        <v>1025240.932267103</v>
       </c>
       <c r="AE6" t="n">
-        <v>1188744.018837556</v>
+        <v>1402779.873965578</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.617359447022012e-07</v>
+        <v>1.279542755213002e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.59114583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1075291.958092408</v>
+        <v>1268900.531608221</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>840.4711674215461</v>
+        <v>996.7316188384387</v>
       </c>
       <c r="AB7" t="n">
-        <v>1149.969730237164</v>
+        <v>1363.772173590339</v>
       </c>
       <c r="AC7" t="n">
-        <v>1040.218233175982</v>
+        <v>1233.615671409143</v>
       </c>
       <c r="AD7" t="n">
-        <v>840471.1674215461</v>
+        <v>996731.6188384388</v>
       </c>
       <c r="AE7" t="n">
-        <v>1149969.730237164</v>
+        <v>1363772.173590339</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.71040443903039e-07</v>
+        <v>1.293358477554063e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1040218.233175982</v>
+        <v>1233615.671409143</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>839.9657290707962</v>
+        <v>996.226180487689</v>
       </c>
       <c r="AB8" t="n">
-        <v>1149.278167187302</v>
+        <v>1363.080610540476</v>
       </c>
       <c r="AC8" t="n">
-        <v>1039.592671932983</v>
+        <v>1232.990110166145</v>
       </c>
       <c r="AD8" t="n">
-        <v>839965.7290707962</v>
+        <v>996226.180487689</v>
       </c>
       <c r="AE8" t="n">
-        <v>1149278.167187301</v>
+        <v>1363080.610540476</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.719609424870793e-07</v>
+        <v>1.294725273614543e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.1484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1039592.671932983</v>
+        <v>1232990.110166145</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>842.9784476665892</v>
+        <v>999.238899083482</v>
       </c>
       <c r="AB9" t="n">
-        <v>1153.40030168183</v>
+        <v>1367.202745035004</v>
       </c>
       <c r="AC9" t="n">
-        <v>1043.321395696806</v>
+        <v>1236.718833929967</v>
       </c>
       <c r="AD9" t="n">
-        <v>842978.4476665892</v>
+        <v>999238.899083482</v>
       </c>
       <c r="AE9" t="n">
-        <v>1153400.30168183</v>
+        <v>1367202.745035004</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.719858208271882e-07</v>
+        <v>1.29476221404861e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.1484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1043321.395696806</v>
+        <v>1236718.833929967</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1546.643269160315</v>
+        <v>1772.067001389612</v>
       </c>
       <c r="AB2" t="n">
-        <v>2116.185553950529</v>
+        <v>2424.620249379836</v>
       </c>
       <c r="AC2" t="n">
-        <v>1914.219774766569</v>
+        <v>2193.217895754917</v>
       </c>
       <c r="AD2" t="n">
-        <v>1546643.269160315</v>
+        <v>1772067.001389612</v>
       </c>
       <c r="AE2" t="n">
-        <v>2116185.553950529</v>
+        <v>2424620.249379836</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.049590216724763e-07</v>
+        <v>8.895574436074273e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.4609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1914219.774766569</v>
+        <v>2193217.895754917</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1159.03871856534</v>
+        <v>1351.028336799499</v>
       </c>
       <c r="AB3" t="n">
-        <v>1585.847907920563</v>
+        <v>1848.536573572714</v>
       </c>
       <c r="AC3" t="n">
-        <v>1434.496809340141</v>
+        <v>1672.11483742831</v>
       </c>
       <c r="AD3" t="n">
-        <v>1159038.71856534</v>
+        <v>1351028.336799499</v>
       </c>
       <c r="AE3" t="n">
-        <v>1585847.907920563</v>
+        <v>1848536.573572714</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.390260141456256e-07</v>
+        <v>1.086695244390764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.94270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1434496.809340141</v>
+        <v>1672114.837428309</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1053.687971247056</v>
+        <v>1220.77284233397</v>
       </c>
       <c r="AB4" t="n">
-        <v>1441.702367692737</v>
+        <v>1670.315259578126</v>
       </c>
       <c r="AC4" t="n">
-        <v>1304.108317162123</v>
+        <v>1510.90271550618</v>
       </c>
       <c r="AD4" t="n">
-        <v>1053687.971247056</v>
+        <v>1220772.84233397</v>
       </c>
       <c r="AE4" t="n">
-        <v>1441702.367692737</v>
+        <v>1670315.259578126</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.893377000482765e-07</v>
+        <v>1.160675684539274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.20833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1304108.317162123</v>
+        <v>1510902.71550618</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>988.9820357859588</v>
+        <v>1156.066817364321</v>
       </c>
       <c r="AB5" t="n">
-        <v>1353.16885217046</v>
+        <v>1581.781621586301</v>
       </c>
       <c r="AC5" t="n">
-        <v>1224.024316103723</v>
+        <v>1430.818603666553</v>
       </c>
       <c r="AD5" t="n">
-        <v>988982.0357859589</v>
+        <v>1156066.817364321</v>
       </c>
       <c r="AE5" t="n">
-        <v>1353168.85217046</v>
+        <v>1581781.621586301</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.154685756721341e-07</v>
+        <v>1.199099634073772e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.91927083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1224024.316103723</v>
+        <v>1430818.603666553</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>952.7773284666438</v>
+        <v>1111.503693431911</v>
       </c>
       <c r="AB6" t="n">
-        <v>1303.631974377214</v>
+        <v>1520.808389435702</v>
       </c>
       <c r="AC6" t="n">
-        <v>1179.21516840162</v>
+        <v>1375.664571215938</v>
       </c>
       <c r="AD6" t="n">
-        <v>952777.3284666438</v>
+        <v>1111503.693431911</v>
       </c>
       <c r="AE6" t="n">
-        <v>1303631.974377214</v>
+        <v>1520808.389435702</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.327754056095769e-07</v>
+        <v>1.224548331993075e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.11197916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1179215.16840162</v>
+        <v>1375664.571215938</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>913.1377556022254</v>
+        <v>1071.949371913513</v>
       </c>
       <c r="AB7" t="n">
-        <v>1249.395362009584</v>
+        <v>1466.688421720721</v>
       </c>
       <c r="AC7" t="n">
-        <v>1130.154822196793</v>
+        <v>1326.709737261823</v>
       </c>
       <c r="AD7" t="n">
-        <v>913137.7556022254</v>
+        <v>1071949.371913513</v>
       </c>
       <c r="AE7" t="n">
-        <v>1249395.362009584</v>
+        <v>1466688.421720721</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.44817059115347e-07</v>
+        <v>1.24225489082707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.56510416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1130154.822196793</v>
+        <v>1326709.737261823</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>888.8243433563565</v>
+        <v>1047.465367467052</v>
       </c>
       <c r="AB8" t="n">
-        <v>1216.128678742741</v>
+        <v>1433.188326679031</v>
       </c>
       <c r="AC8" t="n">
-        <v>1100.063064490854</v>
+        <v>1296.406844273233</v>
       </c>
       <c r="AD8" t="n">
-        <v>888824.3433563565</v>
+        <v>1047465.367467052</v>
       </c>
       <c r="AE8" t="n">
-        <v>1216128.678742741</v>
+        <v>1433188.326679031</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.522760590602169e-07</v>
+        <v>1.253222921197924e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.23958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1100063.064490854</v>
+        <v>1296406.844273233</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>879.5355636784141</v>
+        <v>1038.176587789109</v>
       </c>
       <c r="AB9" t="n">
-        <v>1203.419360595342</v>
+        <v>1420.479008531632</v>
       </c>
       <c r="AC9" t="n">
-        <v>1088.566705829803</v>
+        <v>1284.910485612182</v>
       </c>
       <c r="AD9" t="n">
-        <v>879535.5636784141</v>
+        <v>1038176.587789109</v>
       </c>
       <c r="AE9" t="n">
-        <v>1203419.360595342</v>
+        <v>1420479.008531632</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.541042453212143e-07</v>
+        <v>1.255911163935879e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.16145833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1088566.705829803</v>
+        <v>1284910.485612182</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>880.6155508127855</v>
+        <v>1039.256574923481</v>
       </c>
       <c r="AB10" t="n">
-        <v>1204.897046638259</v>
+        <v>1421.956694574549</v>
       </c>
       <c r="AC10" t="n">
-        <v>1089.903363590729</v>
+        <v>1286.247143373108</v>
       </c>
       <c r="AD10" t="n">
-        <v>880615.5508127855</v>
+        <v>1039256.574923481</v>
       </c>
       <c r="AE10" t="n">
-        <v>1204897.046638259</v>
+        <v>1421956.694574549</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.556886734140788e-07</v>
+        <v>1.258240974308773e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.09635416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1089903.363590729</v>
+        <v>1286247.143373108</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1950.632790713128</v>
+        <v>2208.007306108434</v>
       </c>
       <c r="AB2" t="n">
-        <v>2668.941840098911</v>
+        <v>3021.093006625197</v>
       </c>
       <c r="AC2" t="n">
-        <v>2414.22177676327</v>
+        <v>2732.764130203439</v>
       </c>
       <c r="AD2" t="n">
-        <v>1950632.790713128</v>
+        <v>2208007.306108435</v>
       </c>
       <c r="AE2" t="n">
-        <v>2668941.840098911</v>
+        <v>3021093.006625197</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.23335556243839e-07</v>
+        <v>7.571474945340529e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.54166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2414221.77676327</v>
+        <v>2732764.130203439</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1381.870434190831</v>
+        <v>1587.667637481587</v>
       </c>
       <c r="AB3" t="n">
-        <v>1890.736091880841</v>
+        <v>2172.316904555091</v>
       </c>
       <c r="AC3" t="n">
-        <v>1710.286892936504</v>
+        <v>1964.994028050276</v>
       </c>
       <c r="AD3" t="n">
-        <v>1381870.434190831</v>
+        <v>1587667.637481587</v>
       </c>
       <c r="AE3" t="n">
-        <v>1890736.091880841</v>
+        <v>2172316.904555091</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.706920544120343e-07</v>
+        <v>9.703388247622944e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.67708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1710286.892936504</v>
+        <v>1964994.028050276</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1234.487625880549</v>
+        <v>1414.624273909441</v>
       </c>
       <c r="AB4" t="n">
-        <v>1689.080431480104</v>
+        <v>1935.551340381269</v>
       </c>
       <c r="AC4" t="n">
-        <v>1527.876965738917</v>
+        <v>1750.825037018648</v>
       </c>
       <c r="AD4" t="n">
-        <v>1234487.625880549</v>
+        <v>1414624.273909441</v>
       </c>
       <c r="AE4" t="n">
-        <v>1689080.431480104</v>
+        <v>1935551.340381269</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.28124149578658e-07</v>
+        <v>1.053430001049559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.07031250000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>1527876.965738917</v>
+        <v>1750825.037018648</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1155.772553460924</v>
+        <v>1335.738519780673</v>
       </c>
       <c r="AB5" t="n">
-        <v>1581.378996731667</v>
+        <v>1827.616371388436</v>
       </c>
       <c r="AC5" t="n">
-        <v>1430.454404762957</v>
+        <v>1653.191229978811</v>
       </c>
       <c r="AD5" t="n">
-        <v>1155772.553460924</v>
+        <v>1335738.519780673</v>
       </c>
       <c r="AE5" t="n">
-        <v>1581378.996731667</v>
+        <v>1827616.371388436</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.590400746294338e-07</v>
+        <v>1.098158311431151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.36458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1430454.404762957</v>
+        <v>1653191.229978811</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1105.293595612694</v>
+        <v>1276.762907578685</v>
       </c>
       <c r="AB6" t="n">
-        <v>1512.311459629269</v>
+        <v>1746.923336953293</v>
       </c>
       <c r="AC6" t="n">
-        <v>1367.978576464715</v>
+        <v>1580.199425496773</v>
       </c>
       <c r="AD6" t="n">
-        <v>1105293.595612694</v>
+        <v>1276762.907578685</v>
       </c>
       <c r="AE6" t="n">
-        <v>1512311.459629269</v>
+        <v>1746923.336953293</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.79344826013619e-07</v>
+        <v>1.127534667488467e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.30989583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1367978.576464715</v>
+        <v>1580199.425496773</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1070.994962497799</v>
+        <v>1242.549525809811</v>
       </c>
       <c r="AB7" t="n">
-        <v>1465.38255665257</v>
+        <v>1700.111078629243</v>
       </c>
       <c r="AC7" t="n">
-        <v>1325.528502122983</v>
+        <v>1537.854863405753</v>
       </c>
       <c r="AD7" t="n">
-        <v>1070994.962497799</v>
+        <v>1242549.525809811</v>
       </c>
       <c r="AE7" t="n">
-        <v>1465382.55665257</v>
+        <v>1700111.078629243</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.911324047430243e-07</v>
+        <v>1.144588612314325e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.72395833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1325528.502122983</v>
+        <v>1537854.863405753</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1042.183747146465</v>
+        <v>1205.156404758699</v>
       </c>
       <c r="AB8" t="n">
-        <v>1425.961780747761</v>
+        <v>1648.948160739039</v>
       </c>
       <c r="AC8" t="n">
-        <v>1289.869989743123</v>
+        <v>1491.574862591383</v>
       </c>
       <c r="AD8" t="n">
-        <v>1042183.747146465</v>
+        <v>1205156.404758699</v>
       </c>
       <c r="AE8" t="n">
-        <v>1425961.780747761</v>
+        <v>1648948.160739039</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.026141181560979e-07</v>
+        <v>1.161200039609772e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.1640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1289869.989743123</v>
+        <v>1491574.862591383</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1015.965167968835</v>
+        <v>1187.434390426275</v>
       </c>
       <c r="AB9" t="n">
-        <v>1390.088364034848</v>
+        <v>1624.700118889324</v>
       </c>
       <c r="AC9" t="n">
-        <v>1257.420281572634</v>
+        <v>1469.641019823465</v>
       </c>
       <c r="AD9" t="n">
-        <v>1015965.167968835</v>
+        <v>1187434.390426275</v>
       </c>
       <c r="AE9" t="n">
-        <v>1390088.364034848</v>
+        <v>1624700.118889324</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.083314467613782e-07</v>
+        <v>1.169471713447463e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.90364583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1257420.281572634</v>
+        <v>1469641.019823465</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>994.559760578685</v>
+        <v>1157.617669536939</v>
       </c>
       <c r="AB10" t="n">
-        <v>1360.800541303719</v>
+        <v>1583.903565947647</v>
       </c>
       <c r="AC10" t="n">
-        <v>1230.927647537247</v>
+        <v>1432.738032636219</v>
       </c>
       <c r="AD10" t="n">
-        <v>994559.760578685</v>
+        <v>1157617.669536939</v>
       </c>
       <c r="AE10" t="n">
-        <v>1360800.541303719</v>
+        <v>1583903.565947647</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.149663713156544e-07</v>
+        <v>1.179070939876389e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.59114583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1230927.647537247</v>
+        <v>1432738.032636219</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>975.2354246059257</v>
+        <v>1138.122741363588</v>
       </c>
       <c r="AB11" t="n">
-        <v>1334.360132296255</v>
+        <v>1557.229745165336</v>
       </c>
       <c r="AC11" t="n">
-        <v>1207.010674056108</v>
+        <v>1408.609923872429</v>
       </c>
       <c r="AD11" t="n">
-        <v>975235.4246059257</v>
+        <v>1138122.741363588</v>
       </c>
       <c r="AE11" t="n">
-        <v>1334360.132296255</v>
+        <v>1557229.745165336</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.195778791618888e-07</v>
+        <v>1.185742742642593e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>37.3828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1207010.674056108</v>
+        <v>1408609.923872429</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>960.3971944409157</v>
+        <v>1123.284511198578</v>
       </c>
       <c r="AB12" t="n">
-        <v>1314.057811167974</v>
+        <v>1536.927424037055</v>
       </c>
       <c r="AC12" t="n">
-        <v>1188.645977961823</v>
+        <v>1390.245227778145</v>
       </c>
       <c r="AD12" t="n">
-        <v>960397.1944409156</v>
+        <v>1123284.511198578</v>
       </c>
       <c r="AE12" t="n">
-        <v>1314057.811167974</v>
+        <v>1536927.424037055</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.229188695402831e-07</v>
+        <v>1.190576395667088e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>37.2265625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1188645.977961823</v>
+        <v>1390245.227778145</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>959.9080606296254</v>
+        <v>1122.795377387288</v>
       </c>
       <c r="AB13" t="n">
-        <v>1313.388556708306</v>
+        <v>1536.258169577387</v>
       </c>
       <c r="AC13" t="n">
-        <v>1188.040596208481</v>
+        <v>1389.639846024803</v>
       </c>
       <c r="AD13" t="n">
-        <v>959908.0606296255</v>
+        <v>1122795.377387288</v>
       </c>
       <c r="AE13" t="n">
-        <v>1313388.556708306</v>
+        <v>1536258.169577387</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.225894761226949e-07</v>
+        <v>1.190099838326645e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>37.23958333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1188040.596208482</v>
+        <v>1389639.846024803</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>962.9091789913916</v>
+        <v>1125.796495749054</v>
       </c>
       <c r="AB14" t="n">
-        <v>1317.494819250873</v>
+        <v>1540.364432119953</v>
       </c>
       <c r="AC14" t="n">
-        <v>1191.754962817161</v>
+        <v>1393.354212633483</v>
       </c>
       <c r="AD14" t="n">
-        <v>962909.1789913917</v>
+        <v>1125796.495749054</v>
       </c>
       <c r="AE14" t="n">
-        <v>1317494.819250873</v>
+        <v>1540364.432119953</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.224718356164135e-07</v>
+        <v>1.189929639276486e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>38</v>
+        <v>37.25260416666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1191754.962817161</v>
+        <v>1393354.212633483</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1199.107198892539</v>
+        <v>1393.236028288721</v>
       </c>
       <c r="AB2" t="n">
-        <v>1640.671370400831</v>
+        <v>1906.286999140198</v>
       </c>
       <c r="AC2" t="n">
-        <v>1484.087997506506</v>
+        <v>1724.353643432864</v>
       </c>
       <c r="AD2" t="n">
-        <v>1199107.198892539</v>
+        <v>1393236.028288721</v>
       </c>
       <c r="AE2" t="n">
-        <v>1640671.370400831</v>
+        <v>1906286.999140198</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.044340958288371e-07</v>
+        <v>1.057837843307689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.04427083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1484087.997506506</v>
+        <v>1724353.643432864</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>956.1976302738113</v>
+        <v>1126.124283316417</v>
       </c>
       <c r="AB3" t="n">
-        <v>1308.311782202847</v>
+        <v>1540.812925530586</v>
       </c>
       <c r="AC3" t="n">
-        <v>1183.448341936525</v>
+        <v>1393.759902462469</v>
       </c>
       <c r="AD3" t="n">
-        <v>956197.6302738113</v>
+        <v>1126124.283316417</v>
       </c>
       <c r="AE3" t="n">
-        <v>1308311.782202847</v>
+        <v>1540812.925530586</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.173726354202571e-07</v>
+        <v>1.227435910543686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1183448.341936525</v>
+        <v>1393759.902462469</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>871.3091786287357</v>
+        <v>1033.140022438143</v>
       </c>
       <c r="AB4" t="n">
-        <v>1192.163657647878</v>
+        <v>1413.587757620858</v>
       </c>
       <c r="AC4" t="n">
-        <v>1078.385231374166</v>
+        <v>1278.676926016401</v>
       </c>
       <c r="AD4" t="n">
-        <v>871309.1786287357</v>
+        <v>1033140.022438143</v>
       </c>
       <c r="AE4" t="n">
-        <v>1192163.657647878</v>
+        <v>1413587.757620858</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.60771375560751e-07</v>
+        <v>1.29260713088116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.50260416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1078385.231374166</v>
+        <v>1278676.926016401</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>819.1601290503589</v>
+        <v>972.9805044811387</v>
       </c>
       <c r="AB5" t="n">
-        <v>1120.811027361048</v>
+        <v>1331.274851101467</v>
       </c>
       <c r="AC5" t="n">
-        <v>1013.842395977865</v>
+        <v>1204.219847768331</v>
       </c>
       <c r="AD5" t="n">
-        <v>819160.1290503589</v>
+        <v>972980.5044811388</v>
       </c>
       <c r="AE5" t="n">
-        <v>1120811.027361047</v>
+        <v>1331274.851101467</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.832979943433534e-07</v>
+        <v>1.326435007713222e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.52604166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1013842.395977865</v>
+        <v>1204219.847768331</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>797.3341039152739</v>
+        <v>950.9838871454614</v>
       </c>
       <c r="AB6" t="n">
-        <v>1090.947696874953</v>
+        <v>1301.178108840525</v>
       </c>
       <c r="AC6" t="n">
-        <v>986.8291798399157</v>
+        <v>1176.995496347731</v>
       </c>
       <c r="AD6" t="n">
-        <v>797334.1039152739</v>
+        <v>950983.8871454614</v>
       </c>
       <c r="AE6" t="n">
-        <v>1090947.696874953</v>
+        <v>1301178.108840525</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.91570481466908e-07</v>
+        <v>1.338857674346465e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.17447916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>986829.1798399157</v>
+        <v>1176995.496347731</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>796.1262067820282</v>
+        <v>949.7759900122156</v>
       </c>
       <c r="AB7" t="n">
-        <v>1089.294998728585</v>
+        <v>1299.525410694158</v>
       </c>
       <c r="AC7" t="n">
-        <v>985.3342128850613</v>
+        <v>1175.500529392876</v>
       </c>
       <c r="AD7" t="n">
-        <v>796126.2067820282</v>
+        <v>949775.9900122157</v>
       </c>
       <c r="AE7" t="n">
-        <v>1089294.998728585</v>
+        <v>1299525.410694158</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.929195332132107e-07</v>
+        <v>1.340883524597425e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.12239583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>985334.2128850613</v>
+        <v>1175500.529392876</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>960.4065872049579</v>
+        <v>1133.286811030728</v>
       </c>
       <c r="AB2" t="n">
-        <v>1314.070662762116</v>
+        <v>1550.613011937727</v>
       </c>
       <c r="AC2" t="n">
-        <v>1188.657603017858</v>
+        <v>1402.624682377421</v>
       </c>
       <c r="AD2" t="n">
-        <v>960406.5872049578</v>
+        <v>1133286.811030728</v>
       </c>
       <c r="AE2" t="n">
-        <v>1314070.662762116</v>
+        <v>1550613.011937727</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.934973105407453e-07</v>
+        <v>1.217023920288262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.50260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1188657.603017858</v>
+        <v>1402624.682377421</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>791.9472855636044</v>
+        <v>949.0257845506416</v>
       </c>
       <c r="AB3" t="n">
-        <v>1083.577214356545</v>
+        <v>1298.498946484903</v>
       </c>
       <c r="AC3" t="n">
-        <v>980.1621258285279</v>
+        <v>1174.572029487101</v>
       </c>
       <c r="AD3" t="n">
-        <v>791947.2855636044</v>
+        <v>949025.7845506415</v>
       </c>
       <c r="AE3" t="n">
-        <v>1083577.214356546</v>
+        <v>1298498.946484903</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.901158890688462e-07</v>
+        <v>1.365212350987311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>980162.125828528</v>
+        <v>1174572.029487101</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>731.9341914461556</v>
+        <v>881.0692470950918</v>
       </c>
       <c r="AB4" t="n">
-        <v>1001.464651394197</v>
+        <v>1205.517813907378</v>
       </c>
       <c r="AC4" t="n">
-        <v>905.8862706296005</v>
+        <v>1090.464885702936</v>
       </c>
       <c r="AD4" t="n">
-        <v>731934.1914461557</v>
+        <v>881069.2470950917</v>
       </c>
       <c r="AE4" t="n">
-        <v>1001464.651394197</v>
+        <v>1205517.813907378</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.221983479105043e-07</v>
+        <v>1.414418717931836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.43489583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>905886.2706296005</v>
+        <v>1090464.885702936</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>728.7838079865334</v>
+        <v>877.9188636354695</v>
       </c>
       <c r="AB5" t="n">
-        <v>997.1541577596328</v>
+        <v>1201.207320272813</v>
       </c>
       <c r="AC5" t="n">
-        <v>901.987164457703</v>
+        <v>1086.565779531038</v>
       </c>
       <c r="AD5" t="n">
-        <v>728783.8079865334</v>
+        <v>877918.8636354695</v>
       </c>
       <c r="AE5" t="n">
-        <v>997154.1577596328</v>
+        <v>1201207.320272813</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.24876305218775e-07</v>
+        <v>1.41852602624704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.33072916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>901987.164457703</v>
+        <v>1086565.779531038</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>805.6242059418117</v>
+        <v>966.4870756331392</v>
       </c>
       <c r="AB2" t="n">
-        <v>1102.290580201151</v>
+        <v>1322.390255281771</v>
       </c>
       <c r="AC2" t="n">
-        <v>997.0895143012987</v>
+        <v>1196.183185304058</v>
       </c>
       <c r="AD2" t="n">
-        <v>805624.2059418118</v>
+        <v>966487.0756331391</v>
       </c>
       <c r="AE2" t="n">
-        <v>1102290.580201151</v>
+        <v>1322390.255281771</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.670251120299925e-07</v>
+        <v>1.354709635159587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.18489583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>997089.5143012987</v>
+        <v>1196183.185304058</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>678.4438180511951</v>
+        <v>831.63833814388</v>
       </c>
       <c r="AB3" t="n">
-        <v>928.2767626864863</v>
+        <v>1137.884263542536</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.6833313003066</v>
+        <v>1029.28618646063</v>
       </c>
       <c r="AD3" t="n">
-        <v>678443.8180511951</v>
+        <v>831638.33814388</v>
       </c>
       <c r="AE3" t="n">
-        <v>928276.7626864864</v>
+        <v>1137884.263542536</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.44975362524733e-07</v>
+        <v>1.476505363960433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.79947916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>839683.3313003066</v>
+        <v>1029286.18646063</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.7525747597399</v>
+        <v>830.9470948524249</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.3309731196156</v>
+        <v>1136.938473975665</v>
       </c>
       <c r="AC4" t="n">
-        <v>838.827806562274</v>
+        <v>1028.430661722597</v>
       </c>
       <c r="AD4" t="n">
-        <v>677752.5747597399</v>
+        <v>830947.0948524249</v>
       </c>
       <c r="AE4" t="n">
-        <v>927330.9731196156</v>
+        <v>1136938.473975665</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.475810183294481e-07</v>
+        <v>1.480576649757787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.68229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>838827.806562274</v>
+        <v>1028430.661722597</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.4732064808724</v>
+        <v>735.137737463574</v>
       </c>
       <c r="AB2" t="n">
-        <v>806.5432468296084</v>
+        <v>1005.847884385705</v>
       </c>
       <c r="AC2" t="n">
-        <v>729.5678913427463</v>
+        <v>909.8511740163044</v>
       </c>
       <c r="AD2" t="n">
-        <v>589473.2064808724</v>
+        <v>735137.737463574</v>
       </c>
       <c r="AE2" t="n">
-        <v>806543.2468296083</v>
+        <v>1005847.884385705</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.712370889711711e-07</v>
+        <v>1.582801903473589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.46614583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>729567.8913427463</v>
+        <v>909851.1740163044</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1458.83298289859</v>
+        <v>1674.389477317749</v>
       </c>
       <c r="AB2" t="n">
-        <v>1996.039646370814</v>
+        <v>2290.973551716482</v>
       </c>
       <c r="AC2" t="n">
-        <v>1805.540423980422</v>
+        <v>2072.326251342235</v>
       </c>
       <c r="AD2" t="n">
-        <v>1458832.98289859</v>
+        <v>1674389.477317749</v>
       </c>
       <c r="AE2" t="n">
-        <v>1996039.646370814</v>
+        <v>2290973.551716482</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.275915650507852e-07</v>
+        <v>9.271917314406496e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.08072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1805540.423980422</v>
+        <v>2072326.251342235</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1112.74516594652</v>
+        <v>1295.027536954223</v>
       </c>
       <c r="AB3" t="n">
-        <v>1522.507026900092</v>
+        <v>1771.913808643483</v>
       </c>
       <c r="AC3" t="n">
-        <v>1377.20109310478</v>
+        <v>1602.804841643198</v>
       </c>
       <c r="AD3" t="n">
-        <v>1112745.16594652</v>
+        <v>1295027.536954223</v>
       </c>
       <c r="AE3" t="n">
-        <v>1522507.026900092</v>
+        <v>1771913.808643483</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.571129530835868e-07</v>
+        <v>1.118544143927283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.34375000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1377201.09310478</v>
+        <v>1602804.841643197</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1005.548657750469</v>
+        <v>1179.619084464971</v>
       </c>
       <c r="AB4" t="n">
-        <v>1375.836035210082</v>
+        <v>1614.006872486102</v>
       </c>
       <c r="AC4" t="n">
-        <v>1244.528175007635</v>
+        <v>1459.968321848901</v>
       </c>
       <c r="AD4" t="n">
-        <v>1005548.657750469</v>
+        <v>1179619.084464971</v>
       </c>
       <c r="AE4" t="n">
-        <v>1375836.035210082</v>
+        <v>1614006.872486102</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.056619318330041e-07</v>
+        <v>1.190269473222786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.79166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1244528.175007635</v>
+        <v>1459968.321848901</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>950.4932540175457</v>
+        <v>1116.351825947398</v>
       </c>
       <c r="AB5" t="n">
-        <v>1300.506802949705</v>
+        <v>1527.441818227903</v>
       </c>
       <c r="AC5" t="n">
-        <v>1176.388258948946</v>
+        <v>1381.664914874287</v>
       </c>
       <c r="AD5" t="n">
-        <v>950493.2540175457</v>
+        <v>1116351.825947398</v>
       </c>
       <c r="AE5" t="n">
-        <v>1300506.802949705</v>
+        <v>1527441.818227903</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.313150940322399e-07</v>
+        <v>1.228168962637549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.56770833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1176388.258948946</v>
+        <v>1381664.914874287</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>907.4681694427663</v>
+        <v>1073.241400518047</v>
       </c>
       <c r="AB6" t="n">
-        <v>1241.637984101724</v>
+        <v>1468.456232257724</v>
       </c>
       <c r="AC6" t="n">
-        <v>1123.13779754891</v>
+        <v>1328.308830442312</v>
       </c>
       <c r="AD6" t="n">
-        <v>907468.1694427663</v>
+        <v>1073241.400518047</v>
       </c>
       <c r="AE6" t="n">
-        <v>1241637.984101724</v>
+        <v>1468456.232257724</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.468497824657502e-07</v>
+        <v>1.251119613137277e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.8515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1123137.79754891</v>
+        <v>1328308.830442312</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>879.9178416958478</v>
+        <v>1037.393966640458</v>
       </c>
       <c r="AB7" t="n">
-        <v>1203.942410243711</v>
+        <v>1419.40819174924</v>
       </c>
       <c r="AC7" t="n">
-        <v>1089.039836353836</v>
+        <v>1283.941866080601</v>
       </c>
       <c r="AD7" t="n">
-        <v>879917.8416958478</v>
+        <v>1037393.966640458</v>
       </c>
       <c r="AE7" t="n">
-        <v>1203942.410243711</v>
+        <v>1419408.19174924</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.565251113950207e-07</v>
+        <v>1.265413758377202e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1089039.836353836</v>
+        <v>1283941.866080601</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>859.4119378533738</v>
+        <v>1016.888062797984</v>
       </c>
       <c r="AB8" t="n">
-        <v>1175.885327949808</v>
+        <v>1391.351109455337</v>
       </c>
       <c r="AC8" t="n">
-        <v>1063.660482615701</v>
+        <v>1258.562512342465</v>
       </c>
       <c r="AD8" t="n">
-        <v>859411.9378533738</v>
+        <v>1016888.062797984</v>
       </c>
       <c r="AE8" t="n">
-        <v>1175885.327949808</v>
+        <v>1391351.109455337</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.623598517416799e-07</v>
+        <v>1.274033891766165e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.17447916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1063660.482615701</v>
+        <v>1258562.512342465</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>859.4479393081745</v>
+        <v>1016.924064252785</v>
       </c>
       <c r="AB9" t="n">
-        <v>1175.934586728538</v>
+        <v>1391.400368234067</v>
       </c>
       <c r="AC9" t="n">
-        <v>1063.705040205724</v>
+        <v>1258.607069932489</v>
       </c>
       <c r="AD9" t="n">
-        <v>859447.9393081744</v>
+        <v>1016924.064252785</v>
       </c>
       <c r="AE9" t="n">
-        <v>1175934.586728538</v>
+        <v>1391400.368234067</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.640093352995962e-07</v>
+        <v>1.276470807112411e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.09635416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1063705.040205724</v>
+        <v>1258607.069932489</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1838.796121306919</v>
+        <v>2094.409583964403</v>
       </c>
       <c r="AB2" t="n">
-        <v>2515.921975131698</v>
+        <v>2865.663591609759</v>
       </c>
       <c r="AC2" t="n">
-        <v>2275.805912943798</v>
+        <v>2592.168680410634</v>
       </c>
       <c r="AD2" t="n">
-        <v>1838796.121306919</v>
+        <v>2094409.583964403</v>
       </c>
       <c r="AE2" t="n">
-        <v>2515921.975131698</v>
+        <v>2865663.591609759</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.425871136877953e-07</v>
+        <v>7.879281947768853e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.92708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2275805.912943798</v>
+        <v>2592168.680410634</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1322.831619030015</v>
+        <v>1527.27118464326</v>
       </c>
       <c r="AB3" t="n">
-        <v>1809.956580369112</v>
+        <v>2089.679813278242</v>
       </c>
       <c r="AC3" t="n">
-        <v>1637.216864628698</v>
+        <v>1890.243704783004</v>
       </c>
       <c r="AD3" t="n">
-        <v>1322831.619030015</v>
+        <v>1527271.18464326</v>
       </c>
       <c r="AE3" t="n">
-        <v>1809956.580369112</v>
+        <v>2089679.813278242</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.868041161847611e-07</v>
+        <v>9.973556573298424e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.97395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1637216.864628698</v>
+        <v>1890243.704783004</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1185.929982373618</v>
+        <v>1373.396923160021</v>
       </c>
       <c r="AB4" t="n">
-        <v>1622.641721421879</v>
+        <v>1879.142260263563</v>
       </c>
       <c r="AC4" t="n">
-        <v>1467.779072921334</v>
+        <v>1699.799560336735</v>
       </c>
       <c r="AD4" t="n">
-        <v>1185929.982373618</v>
+        <v>1373396.923160021</v>
       </c>
       <c r="AE4" t="n">
-        <v>1622641.721421879</v>
+        <v>1879142.260263563</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.417721692832099e-07</v>
+        <v>1.077178560888849e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1467779.072921334</v>
+        <v>1699799.560336735</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1119.133565794016</v>
+        <v>1289.627971262129</v>
       </c>
       <c r="AB5" t="n">
-        <v>1531.247917407747</v>
+        <v>1764.525884651534</v>
       </c>
       <c r="AC5" t="n">
-        <v>1385.107765290301</v>
+        <v>1596.122010748024</v>
       </c>
       <c r="AD5" t="n">
-        <v>1119133.565794016</v>
+        <v>1289627.971262129</v>
       </c>
       <c r="AE5" t="n">
-        <v>1531247.917407747</v>
+        <v>1764525.884651534</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.720437427634087e-07</v>
+        <v>1.121138001951125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.01302083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1385107.765290301</v>
+        <v>1596122.010748024</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1073.895531281426</v>
+        <v>1244.304595894967</v>
       </c>
       <c r="AB6" t="n">
-        <v>1469.351242826392</v>
+        <v>1702.512442947981</v>
       </c>
       <c r="AC6" t="n">
-        <v>1329.118422458462</v>
+        <v>1540.027044884246</v>
       </c>
       <c r="AD6" t="n">
-        <v>1073895.531281426</v>
+        <v>1244304.595894967</v>
       </c>
       <c r="AE6" t="n">
-        <v>1469351.242826392</v>
+        <v>1702512.442947981</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.902873477839987e-07</v>
+        <v>1.147630799895396e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.08854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1329118.422458462</v>
+        <v>1540027.044884246</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1033.789129948733</v>
+        <v>1204.112853707702</v>
       </c>
       <c r="AB7" t="n">
-        <v>1414.47589515345</v>
+        <v>1647.520328152841</v>
       </c>
       <c r="AC7" t="n">
-        <v>1279.480300949392</v>
+        <v>1490.283300343237</v>
       </c>
       <c r="AD7" t="n">
-        <v>1033789.129948733</v>
+        <v>1204112.853707702</v>
       </c>
       <c r="AE7" t="n">
-        <v>1414475.89515345</v>
+        <v>1647520.328152841</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.040946015186975e-07</v>
+        <v>1.167681265959851e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.41145833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1279480.300949392</v>
+        <v>1490283.300343237</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1001.212900988388</v>
+        <v>1171.621876093377</v>
       </c>
       <c r="AB8" t="n">
-        <v>1369.903661528114</v>
+        <v>1603.064739180155</v>
       </c>
       <c r="AC8" t="n">
-        <v>1239.161978743735</v>
+        <v>1450.070490388292</v>
       </c>
       <c r="AD8" t="n">
-        <v>1001212.900988388</v>
+        <v>1171621.876093377</v>
       </c>
       <c r="AE8" t="n">
-        <v>1369903.661528114</v>
+        <v>1603064.739180155</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.135603991821766e-07</v>
+        <v>1.181427204034967e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.96875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1239161.978743735</v>
+        <v>1450070.490388292</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>977.3248162317367</v>
+        <v>1139.375490205163</v>
       </c>
       <c r="AB9" t="n">
-        <v>1337.218930096143</v>
+        <v>1558.943811397757</v>
       </c>
       <c r="AC9" t="n">
-        <v>1209.596632206322</v>
+        <v>1410.160402029336</v>
       </c>
       <c r="AD9" t="n">
-        <v>977324.8162317367</v>
+        <v>1139375.490205163</v>
       </c>
       <c r="AE9" t="n">
-        <v>1337218.930096143</v>
+        <v>1558943.811397757</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.211045687485585e-07</v>
+        <v>1.192382613327916e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>37.6171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1209596.632206322</v>
+        <v>1410160.402029336</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>956.6045833985175</v>
+        <v>1118.484665171352</v>
       </c>
       <c r="AB10" t="n">
-        <v>1308.868593421575</v>
+        <v>1530.360062948342</v>
       </c>
       <c r="AC10" t="n">
-        <v>1183.952011874027</v>
+        <v>1384.30464641439</v>
       </c>
       <c r="AD10" t="n">
-        <v>956604.5833985176</v>
+        <v>1118484.665171352</v>
       </c>
       <c r="AE10" t="n">
-        <v>1308868.593421575</v>
+        <v>1530360.062948342</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.25659539052789e-07</v>
+        <v>1.198997200070829e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.40885416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1183952.011874027</v>
+        <v>1384304.64641439</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>939.8124980961745</v>
+        <v>1101.692579869008</v>
       </c>
       <c r="AB11" t="n">
-        <v>1285.892921496389</v>
+        <v>1507.384391023157</v>
       </c>
       <c r="AC11" t="n">
-        <v>1163.169105830824</v>
+        <v>1363.521740371186</v>
       </c>
       <c r="AD11" t="n">
-        <v>939812.4980961746</v>
+        <v>1101692.579869008</v>
       </c>
       <c r="AE11" t="n">
-        <v>1285892.921496389</v>
+        <v>1507384.391023157</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.300247189276765e-07</v>
+        <v>1.205336179032787e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>37.21354166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1163169.105830824</v>
+        <v>1363521.740371186</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>940.2384068571383</v>
+        <v>1102.118488629972</v>
       </c>
       <c r="AB12" t="n">
-        <v>1286.475668652909</v>
+        <v>1507.967138179676</v>
       </c>
       <c r="AC12" t="n">
-        <v>1163.696236416616</v>
+        <v>1364.048870956978</v>
       </c>
       <c r="AD12" t="n">
-        <v>940238.4068571384</v>
+        <v>1102118.488629972</v>
       </c>
       <c r="AE12" t="n">
-        <v>1286475.668652909</v>
+        <v>1507967.138179676</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.301433379460159e-07</v>
+        <v>1.205508433895884e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>37.21354166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1163696.236416616</v>
+        <v>1364048.870956978</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>942.6193809847952</v>
+        <v>1104.499462757629</v>
       </c>
       <c r="AB13" t="n">
-        <v>1289.733422495534</v>
+        <v>1511.224892022301</v>
       </c>
       <c r="AC13" t="n">
-        <v>1166.643074804787</v>
+        <v>1366.995709345149</v>
       </c>
       <c r="AD13" t="n">
-        <v>942619.3809847952</v>
+        <v>1104499.462757629</v>
       </c>
       <c r="AE13" t="n">
-        <v>1289733.422495534</v>
+        <v>1511224.892022301</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.302619569643552e-07</v>
+        <v>1.205680688758981e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>38</v>
+        <v>37.20052083333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1166643.074804787</v>
+        <v>1366995.709345149</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>557.6187208524076</v>
+        <v>713.9926464890088</v>
       </c>
       <c r="AB2" t="n">
-        <v>762.9585342720197</v>
+        <v>976.9162380587286</v>
       </c>
       <c r="AC2" t="n">
-        <v>690.1428425801258</v>
+        <v>883.6807234089542</v>
       </c>
       <c r="AD2" t="n">
-        <v>557618.7208524076</v>
+        <v>713992.6464890088</v>
       </c>
       <c r="AE2" t="n">
-        <v>762958.5342720198</v>
+        <v>976916.2380587286</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.510913754849748e-07</v>
+        <v>1.585412657820639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.73177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>690142.8425801258</v>
+        <v>883680.7234089542</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1036.346639882588</v>
+        <v>1218.939741471781</v>
       </c>
       <c r="AB2" t="n">
-        <v>1417.975193074325</v>
+        <v>1667.807130107777</v>
       </c>
       <c r="AC2" t="n">
-        <v>1282.645630787994</v>
+        <v>1508.633958392299</v>
       </c>
       <c r="AD2" t="n">
-        <v>1036346.639882588</v>
+        <v>1218939.741471781</v>
       </c>
       <c r="AE2" t="n">
-        <v>1417975.193074325</v>
+        <v>1667807.130107777</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.619174166483575e-07</v>
+        <v>1.159567161602335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.6484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1282645.630787994</v>
+        <v>1508633.958392299</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>849.5854370225833</v>
+        <v>1008.265664338309</v>
       </c>
       <c r="AB3" t="n">
-        <v>1162.440275998499</v>
+        <v>1379.553563489435</v>
       </c>
       <c r="AC3" t="n">
-        <v>1051.498607552376</v>
+        <v>1247.89090760559</v>
       </c>
       <c r="AD3" t="n">
-        <v>849585.4370225833</v>
+        <v>1008265.664338309</v>
       </c>
       <c r="AE3" t="n">
-        <v>1162440.275998499</v>
+        <v>1379553.563489435</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.65279623028828e-07</v>
+        <v>1.316874787928553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.32291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1051498.607552376</v>
+        <v>1247890.90760559</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>772.3087061020136</v>
+        <v>930.9888439091877</v>
       </c>
       <c r="AB4" t="n">
-        <v>1056.706843544218</v>
+        <v>1273.820008565605</v>
       </c>
       <c r="AC4" t="n">
-        <v>955.8562254937267</v>
+        <v>1152.248414765714</v>
       </c>
       <c r="AD4" t="n">
-        <v>772308.7061020136</v>
+        <v>930988.8439091877</v>
       </c>
       <c r="AE4" t="n">
-        <v>1056706.843544218</v>
+        <v>1273820.008565605</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.031912917492686e-07</v>
+        <v>1.374572807594716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.66927083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>955856.2254937267</v>
+        <v>1152248.414765714</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>750.5431535769601</v>
+        <v>901.2808399168696</v>
       </c>
       <c r="AB5" t="n">
-        <v>1026.926254351032</v>
+        <v>1233.172206878678</v>
       </c>
       <c r="AC5" t="n">
-        <v>928.9178539358192</v>
+        <v>1115.479982222239</v>
       </c>
       <c r="AD5" t="n">
-        <v>750543.1535769601</v>
+        <v>901280.8399168695</v>
       </c>
       <c r="AE5" t="n">
-        <v>1026926.254351032</v>
+        <v>1233172.206878678</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.134334517343909e-07</v>
+        <v>1.390160418696809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.23958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>928917.8539358191</v>
+        <v>1115479.982222239</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>753.7884927269814</v>
+        <v>904.5261790668909</v>
       </c>
       <c r="AB6" t="n">
-        <v>1031.36667055035</v>
+        <v>1237.612623077996</v>
       </c>
       <c r="AC6" t="n">
-        <v>932.934483045237</v>
+        <v>1119.496611331657</v>
       </c>
       <c r="AD6" t="n">
-        <v>753788.4927269814</v>
+        <v>904526.1790668909</v>
       </c>
       <c r="AE6" t="n">
-        <v>1031366.67055035</v>
+        <v>1237612.623077996</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.130676603063511e-07</v>
+        <v>1.389603718300306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>932934.483045237</v>
+        <v>1119496.611331657</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1280.877034957614</v>
+        <v>1484.77663072823</v>
       </c>
       <c r="AB2" t="n">
-        <v>1752.552467535634</v>
+        <v>2031.536889884291</v>
       </c>
       <c r="AC2" t="n">
-        <v>1585.291319756869</v>
+        <v>1837.649860393667</v>
       </c>
       <c r="AD2" t="n">
-        <v>1280877.034957614</v>
+        <v>1484776.63072823</v>
       </c>
       <c r="AE2" t="n">
-        <v>1752552.467535634</v>
+        <v>2031536.889884291</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.773151836392608e-07</v>
+        <v>1.011171080878089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1585291.319756869</v>
+        <v>1837649.860393667</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1010.056718682552</v>
+        <v>1181.376770695615</v>
       </c>
       <c r="AB3" t="n">
-        <v>1382.004163058971</v>
+        <v>1616.411816330513</v>
       </c>
       <c r="AC3" t="n">
-        <v>1250.107625391647</v>
+        <v>1462.143741228161</v>
       </c>
       <c r="AD3" t="n">
-        <v>1010056.718682552</v>
+        <v>1181376.770695615</v>
       </c>
       <c r="AE3" t="n">
-        <v>1382004.163058971</v>
+        <v>1616411.816330513</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.971817333158098e-07</v>
+        <v>1.19012113474565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.09375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1250107.625391647</v>
+        <v>1462143.741228161</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>914.8019559500314</v>
+        <v>1078.041038156083</v>
       </c>
       <c r="AB4" t="n">
-        <v>1251.67239434479</v>
+        <v>1475.023308219154</v>
       </c>
       <c r="AC4" t="n">
-        <v>1132.214537761762</v>
+        <v>1334.249153890933</v>
       </c>
       <c r="AD4" t="n">
-        <v>914801.9559500314</v>
+        <v>1078041.038156084</v>
       </c>
       <c r="AE4" t="n">
-        <v>1251672.39434479</v>
+        <v>1475023.308219154</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.413550095449848e-07</v>
+        <v>1.256067891218145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.93229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1132214.537761762</v>
+        <v>1334249.153890933</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>863.5464418724291</v>
+        <v>1026.70018322391</v>
       </c>
       <c r="AB5" t="n">
-        <v>1181.542338750123</v>
+        <v>1404.77648550229</v>
       </c>
       <c r="AC5" t="n">
-        <v>1068.777596244899</v>
+        <v>1270.706589342131</v>
       </c>
       <c r="AD5" t="n">
-        <v>863546.4418724291</v>
+        <v>1026700.18322391</v>
       </c>
       <c r="AE5" t="n">
-        <v>1181542.338750124</v>
+        <v>1404776.48550229</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.636932039023353e-07</v>
+        <v>1.289416820459361e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.9296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1068777.596244899</v>
+        <v>1270706.589342131</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>828.2297974928755</v>
+        <v>983.2174071998759</v>
       </c>
       <c r="AB6" t="n">
-        <v>1133.220547849631</v>
+        <v>1345.281433021517</v>
       </c>
       <c r="AC6" t="n">
-        <v>1025.06756924789</v>
+        <v>1216.889661168293</v>
       </c>
       <c r="AD6" t="n">
-        <v>828229.7974928755</v>
+        <v>983217.4071998759</v>
       </c>
       <c r="AE6" t="n">
-        <v>1133220.547849631</v>
+        <v>1345281.433021517</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.781576878612054e-07</v>
+        <v>1.311011003245058e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.3046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1025067.56924789</v>
+        <v>1216889.661168293</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>817.9902569797167</v>
+        <v>972.9778666867171</v>
       </c>
       <c r="AB7" t="n">
-        <v>1119.210356782881</v>
+        <v>1331.271241954768</v>
       </c>
       <c r="AC7" t="n">
-        <v>1012.394491153124</v>
+        <v>1204.216583073527</v>
       </c>
       <c r="AD7" t="n">
-        <v>817990.2569797167</v>
+        <v>972977.8666867171</v>
       </c>
       <c r="AE7" t="n">
-        <v>1119210.356782881</v>
+        <v>1331271.241954768</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.821322764968601e-07</v>
+        <v>1.316944709123563e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.13541666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1012394.491153124</v>
+        <v>1204216.583073527</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>821.6380076740596</v>
+        <v>976.6256173810598</v>
       </c>
       <c r="AB8" t="n">
-        <v>1124.201370210284</v>
+        <v>1336.262255382171</v>
       </c>
       <c r="AC8" t="n">
-        <v>1016.909169263947</v>
+        <v>1208.73126118435</v>
       </c>
       <c r="AD8" t="n">
-        <v>821638.0076740596</v>
+        <v>976625.6173810598</v>
       </c>
       <c r="AE8" t="n">
-        <v>1124201.370210284</v>
+        <v>1336262.255382171</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.819813427512024e-07</v>
+        <v>1.316719378520582e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.13541666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1016909.169263947</v>
+        <v>1208731.26118435</v>
       </c>
     </row>
   </sheetData>
